--- a/data/trans_orig/P04B3_2_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P04B3_2_2023-Estudios-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>138320</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>119802</v>
+        <v>119855</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>158377</v>
+        <v>158382</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2390892329599725</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.207079882306346</v>
+        <v>0.2071723796328743</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2737573232288436</v>
+        <v>0.2737664037148763</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>352</v>
@@ -762,19 +762,19 @@
         <v>214959</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>195459</v>
+        <v>197288</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>235492</v>
+        <v>233686</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.261495054547687</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2377731804154991</v>
+        <v>0.2399987128567371</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2864732927864087</v>
+        <v>0.2842761694837705</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>525</v>
@@ -783,19 +783,19 @@
         <v>353279</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>325524</v>
+        <v>325001</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>382851</v>
+        <v>381678</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2522399284063646</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2324230997549153</v>
+        <v>0.2320498564352365</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2733540507433288</v>
+        <v>0.2725169313639739</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>92126</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>77701</v>
+        <v>75519</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>111233</v>
+        <v>108692</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1592417662671681</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1343074347666285</v>
+        <v>0.1305363881095068</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.192269439155689</v>
+        <v>0.1878757772731639</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>244</v>
@@ -833,19 +833,19 @@
         <v>140886</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>124129</v>
+        <v>125568</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>157546</v>
+        <v>157663</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1713862286908628</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1510015904734083</v>
+        <v>0.1527526077036348</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1916532726683201</v>
+        <v>0.1917951903305294</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>361</v>
@@ -854,19 +854,19 @@
         <v>233012</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>212498</v>
+        <v>210730</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>255430</v>
+        <v>256321</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.1663697408459594</v>
+        <v>0.1663697408459593</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1517226814516449</v>
+        <v>0.1504605144446787</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1823764576069773</v>
+        <v>0.1830122434901694</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>102803</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>86231</v>
+        <v>85495</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>122803</v>
+        <v>121334</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.177697126791314</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1490528322466</v>
+        <v>0.147780717265067</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2122684107024407</v>
+        <v>0.2097277046852608</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>263</v>
@@ -904,19 +904,19 @@
         <v>154701</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>136975</v>
+        <v>137861</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>173769</v>
+        <v>174146</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.18819243457279</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1666284899303416</v>
+        <v>0.1677069453499274</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2113882684286048</v>
+        <v>0.2118461891484346</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>382</v>
@@ -925,19 +925,19 @@
         <v>257504</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>233248</v>
+        <v>233615</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>283453</v>
+        <v>284979</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1838571596073398</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1665385843805066</v>
+        <v>0.1668000193818092</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.20238422920243</v>
+        <v>0.2034742207777596</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>245280</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>221071</v>
+        <v>220913</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>268268</v>
+        <v>268499</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.4239718739815456</v>
+        <v>0.4239718739815455</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3821252227153512</v>
+        <v>0.3818535575807553</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4637067549247815</v>
+        <v>0.464106217925813</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>568</v>
@@ -975,19 +975,19 @@
         <v>311492</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>289756</v>
+        <v>290982</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>333102</v>
+        <v>331464</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3789262821886603</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3524849775668507</v>
+        <v>0.3539762255584838</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.405214669425965</v>
+        <v>0.4032222917995756</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>850</v>
@@ -996,19 +996,19 @@
         <v>556772</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>527737</v>
+        <v>524333</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>589378</v>
+        <v>589738</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.3975331711403363</v>
+        <v>0.3975331711403362</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3768026918984962</v>
+        <v>0.3743720552893581</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4208137763583389</v>
+        <v>0.4210707504716084</v>
       </c>
     </row>
     <row r="8">
@@ -1100,19 +1100,19 @@
         <v>455796</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>411672</v>
+        <v>417329</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>497702</v>
+        <v>501664</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2043409916346463</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1845594370212053</v>
+        <v>0.1870954119616587</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2231279538178191</v>
+        <v>0.2249041823225568</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>521</v>
@@ -1121,19 +1121,19 @@
         <v>426036</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>392587</v>
+        <v>393697</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>464772</v>
+        <v>461709</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.196393017537677</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1809738903476902</v>
+        <v>0.181485700030897</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2142493890648701</v>
+        <v>0.2128375790933987</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>947</v>
@@ -1142,19 +1142,19 @@
         <v>881832</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>827191</v>
+        <v>827026</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>933409</v>
+        <v>938015</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.2004223390363727</v>
+        <v>0.2004223390363726</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1880036163745312</v>
+        <v>0.1879660846773128</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2121446854253589</v>
+        <v>0.2131916238765085</v>
       </c>
     </row>
     <row r="10">
@@ -1171,19 +1171,19 @@
         <v>300273</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>268031</v>
+        <v>268502</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>342671</v>
+        <v>337913</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1346172987739669</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1201625767309903</v>
+        <v>0.1203737670581156</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1536250619675484</v>
+        <v>0.1514921765714244</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>383</v>
@@ -1192,19 +1192,19 @@
         <v>299428</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>270096</v>
+        <v>270406</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>330977</v>
+        <v>334102</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1380296907649762</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1245082382729526</v>
+        <v>0.1246512338021153</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1525731221970478</v>
+        <v>0.1540136869954212</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>651</v>
@@ -1213,19 +1213,19 @@
         <v>599701</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>554308</v>
+        <v>553969</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>647395</v>
+        <v>645852</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1362997374154059</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1259829148090676</v>
+        <v>0.1259058664510179</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1471397342237611</v>
+        <v>0.1467888378814534</v>
       </c>
     </row>
     <row r="11">
@@ -1242,19 +1242,19 @@
         <v>439888</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>398939</v>
+        <v>396053</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>489652</v>
+        <v>482357</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.1972091691561961</v>
+        <v>0.197209169156196</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1788509761778188</v>
+        <v>0.1775573621699618</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2195193747453804</v>
+        <v>0.2162489236265377</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>500</v>
@@ -1263,19 +1263,19 @@
         <v>396523</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>362910</v>
+        <v>363034</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>433989</v>
+        <v>434726</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.182788257018211</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1672933474406403</v>
+        <v>0.1673508082733254</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2000592585149352</v>
+        <v>0.2003990035540631</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>866</v>
@@ -1284,19 +1284,19 @@
         <v>836411</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>783769</v>
+        <v>780865</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>892431</v>
+        <v>891700</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1900991126651287</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1781346107927299</v>
+        <v>0.1774746532223184</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2028314087328199</v>
+        <v>0.2026650936428881</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>1034609</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>972405</v>
+        <v>981120</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1087065</v>
+        <v>1084644</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.4638325404351907</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.4359453528036041</v>
+        <v>0.4398526340928709</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4873493937100413</v>
+        <v>0.4862639752706406</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>1514</v>
@@ -1334,19 +1334,19 @@
         <v>1047315</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>1000879</v>
+        <v>1003442</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>1086646</v>
+        <v>1089229</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.4827890346791359</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.4613830440060476</v>
+        <v>0.4625645873264547</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.5009194832327478</v>
+        <v>0.502110223804225</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>2446</v>
@@ -1355,19 +1355,19 @@
         <v>2081924</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>2008826</v>
+        <v>2014858</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>2148831</v>
+        <v>2156825</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.4731788108830928</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.4565650083984593</v>
+        <v>0.4579360167828937</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.4883853895459498</v>
+        <v>0.4902021962587017</v>
       </c>
     </row>
     <row r="13">
@@ -1459,19 +1459,19 @@
         <v>95602</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>75574</v>
+        <v>77423</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>115184</v>
+        <v>116318</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1346615655852533</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1064505340056794</v>
+        <v>0.1090555594791301</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1622437018586534</v>
+        <v>0.1638407409901787</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>110</v>
@@ -1480,19 +1480,19 @@
         <v>85321</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>70412</v>
+        <v>70677</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>103685</v>
+        <v>101605</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1166420413839688</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.09625903857602977</v>
+        <v>0.09662128965374196</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1417461917768816</v>
+        <v>0.1389033404049748</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>199</v>
@@ -1501,19 +1501,19 @@
         <v>180924</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>157052</v>
+        <v>159189</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>205348</v>
+        <v>207743</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1255171900725012</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1089562039506528</v>
+        <v>0.1104387010635667</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.142461936644973</v>
+        <v>0.1441232848315337</v>
       </c>
     </row>
     <row r="15">
@@ -1530,19 +1530,19 @@
         <v>94973</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>77317</v>
+        <v>77572</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>117090</v>
+        <v>116653</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.1337747926997972</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1089064601933142</v>
+        <v>0.1092647457049902</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1649280679776456</v>
+        <v>0.1643123069003877</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>119</v>
@@ -1551,19 +1551,19 @@
         <v>87471</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>72801</v>
+        <v>73222</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>104924</v>
+        <v>104507</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1195801786179762</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.09952590048863121</v>
+        <v>0.1001018210314677</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1434401175409049</v>
+        <v>0.1428705340301133</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>206</v>
@@ -1572,19 +1572,19 @@
         <v>182443</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>159316</v>
+        <v>158478</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>211274</v>
+        <v>208985</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.1265714459314337</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1105265924524992</v>
+        <v>0.1099455649442618</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1465730650259724</v>
+        <v>0.1449850894702271</v>
       </c>
     </row>
     <row r="16">
@@ -1601,19 +1601,19 @@
         <v>138855</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>117924</v>
+        <v>118273</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>161971</v>
+        <v>162859</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1955854385731901</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.166103016908697</v>
+        <v>0.1665948252863949</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2281462623777858</v>
+        <v>0.2293963603469162</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>188</v>
@@ -1622,19 +1622,19 @@
         <v>144189</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>125039</v>
+        <v>125598</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>163953</v>
+        <v>164565</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1971189747979013</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1709401931693553</v>
+        <v>0.1717045641103975</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2241380943501044</v>
+        <v>0.2249759460931387</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>324</v>
@@ -1643,19 +1643,19 @@
         <v>283043</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>254458</v>
+        <v>254110</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>315166</v>
+        <v>314271</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1963636628450701</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1765322708875449</v>
+        <v>0.1762908064077442</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2186487530604132</v>
+        <v>0.2180277779214338</v>
       </c>
     </row>
     <row r="17">
@@ -1672,19 +1672,19 @@
         <v>380515</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>350985</v>
+        <v>351586</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>409239</v>
+        <v>408878</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.5359782031417595</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4943846326744434</v>
+        <v>0.4952312257023113</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5764390584849939</v>
+        <v>0.5759297433503164</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>583</v>
@@ -1693,19 +1693,19 @@
         <v>414500</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>391525</v>
+        <v>390463</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>439167</v>
+        <v>437493</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.5666588052001537</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5352497824877572</v>
+        <v>0.5337992090445174</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6003816195400398</v>
+        <v>0.5980924008940451</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>951</v>
@@ -1714,19 +1714,19 @@
         <v>795015</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>757746</v>
+        <v>758586</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>833651</v>
+        <v>834786</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.5515477011509953</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.5256925012451936</v>
+        <v>0.5262747118610861</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.5783518330890053</v>
+        <v>0.5791391071167421</v>
       </c>
     </row>
     <row r="18">
@@ -1818,19 +1818,19 @@
         <v>689718</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>638201</v>
+        <v>641975</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>739952</v>
+        <v>736103</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1959962084058127</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1813565733414858</v>
+        <v>0.18242889129033</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2102709880303634</v>
+        <v>0.2091772080006412</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>983</v>
@@ -1839,19 +1839,19 @@
         <v>726316</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>684851</v>
+        <v>686068</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>769260</v>
+        <v>771914</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1950983191801683</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1839602702401749</v>
+        <v>0.1842871989516507</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2066336372617527</v>
+        <v>0.2073467049008093</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>1671</v>
@@ -1860,19 +1860,19 @@
         <v>1416034</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>1353129</v>
+        <v>1347897</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>1486381</v>
+        <v>1482895</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.1955346308564212</v>
+        <v>0.1955346308564213</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1868482266917418</v>
+        <v>0.1861257332320274</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2052484564534511</v>
+        <v>0.2047671647358641</v>
       </c>
     </row>
     <row r="20">
@@ -1889,19 +1889,19 @@
         <v>487372</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>444445</v>
+        <v>444446</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>532159</v>
+        <v>529000</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1384955856378161</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1262972280959573</v>
+        <v>0.1262975315893292</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1512226934801751</v>
+        <v>0.1503249771813051</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>746</v>
@@ -1910,19 +1910,19 @@
         <v>527785</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>489487</v>
+        <v>492268</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>563889</v>
+        <v>565364</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1417701032417347</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1314829501577913</v>
+        <v>0.1322299148562043</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1514681896379096</v>
+        <v>0.1518645595924078</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1218</v>
@@ -1931,19 +1931,19 @@
         <v>1015156</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>956050</v>
+        <v>959541</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1072462</v>
+        <v>1072622</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.1401789155719414</v>
+        <v>0.1401789155719415</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1320171227459773</v>
+        <v>0.1324992169431485</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1480919980552829</v>
+        <v>0.148114095881273</v>
       </c>
     </row>
     <row r="21">
@@ -1960,19 +1960,19 @@
         <v>681546</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>626808</v>
+        <v>625539</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>734722</v>
+        <v>732554</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1936738161280966</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1781191110931139</v>
+        <v>0.1777584821282122</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.208784919089899</v>
+        <v>0.2081687153417437</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>951</v>
@@ -1981,19 +1981,19 @@
         <v>695413</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>651353</v>
+        <v>650352</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>739591</v>
+        <v>738614</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.186797335179416</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1749623789696468</v>
+        <v>0.1746934400799037</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1986640504040116</v>
+        <v>0.1984016825587539</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>1572</v>
@@ -2002,19 +2002,19 @@
         <v>1376959</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>1315262</v>
+        <v>1310090</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>1443626</v>
+        <v>1447574</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.1901388263609002</v>
+        <v>0.1901388263609003</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1816193519128603</v>
+        <v>0.1809051427788725</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1993446883244558</v>
+        <v>0.1998898048978753</v>
       </c>
     </row>
     <row r="22">
@@ -2031,19 +2031,19 @@
         <v>1660404</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1598841</v>
+        <v>1589672</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1727230</v>
+        <v>1723857</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.4718343898282746</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.4543400792518261</v>
+        <v>0.4517344441031433</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4908242667012798</v>
+        <v>0.4898657158101904</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>2665</v>
@@ -2052,19 +2052,19 @@
         <v>1773307</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1720711</v>
+        <v>1715968</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>1827912</v>
+        <v>1825966</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.476334242398681</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.4622062615054035</v>
+        <v>0.4609321906700355</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4910019905944482</v>
+        <v>0.4904793143265429</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>4247</v>
@@ -2073,19 +2073,19 @@
         <v>3433711</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>3354552</v>
+        <v>3342587</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>3517661</v>
+        <v>3508182</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.4741476272107371</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.4632168895160987</v>
+        <v>0.4615647485576205</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4857400147259852</v>
+        <v>0.4844310791206002</v>
       </c>
     </row>
     <row r="23">
